--- a/Домашнее задание 6.2.xlsx
+++ b/Домашнее задание 6.2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="Workbook________"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\тестирование\QATester\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\тестирование\QATester\MyFirst_Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D309B15-4C96-4CE2-91A8-3D2098B5FA03}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F993437-24BE-49AF-ABB2-0A2001FF27A2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11040" windowHeight="7890" tabRatio="682" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="140">
   <si>
     <t>passed</t>
   </si>
@@ -1474,7 +1474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1575,21 +1575,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1605,6 +1590,22 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2004,7 +2005,7 @@
       <pane xSplit="11" ySplit="7" topLeftCell="L13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2048,7 +2049,7 @@
       <c r="K1" s="11"/>
       <c r="L1" s="16">
         <f>COUNTIF(L$8:L$46,"failed")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M1" s="11"/>
       <c r="N1" s="16">
@@ -2093,7 +2094,7 @@
       <c r="K2" s="11"/>
       <c r="L2" s="17">
         <f>COUNTIF(L$8:L$46,"passed")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="17">
@@ -2166,7 +2167,9 @@
         <v>8</v>
       </c>
       <c r="K4" s="11"/>
-      <c r="L4" s="19"/>
+      <c r="L4" s="22">
+        <v>44004</v>
+      </c>
       <c r="M4" s="11"/>
       <c r="O4" s="11"/>
       <c r="Q4" s="11"/>
@@ -2220,43 +2223,43 @@
     </row>
     <row r="6" spans="1:26" ht="27" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="39" t="s">
+      <c r="F6" s="36"/>
+      <c r="G6" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="43" t="s">
+      <c r="I6" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="37"/>
+      <c r="J6" s="44"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="36" t="s">
+      <c r="L6" s="43" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="36" t="s">
+      <c r="N6" s="43" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="36"/>
+      <c r="P6" s="43"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="36"/>
+      <c r="R6" s="43"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="36"/>
+      <c r="T6" s="43"/>
       <c r="U6" s="11"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -2266,29 +2269,29 @@
     </row>
     <row r="7" spans="1:26" ht="126.95" customHeight="1" thickBot="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="42"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="37"/>
       <c r="E7" s="24" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="38"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="45"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="36"/>
+      <c r="L7" s="43"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="36"/>
+      <c r="N7" s="43"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="36"/>
+      <c r="P7" s="43"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="36"/>
+      <c r="R7" s="43"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="36"/>
+      <c r="T7" s="43"/>
       <c r="U7" s="11"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -2498,7 +2501,9 @@
       <c r="I13" s="21"/>
       <c r="J13" s="20"/>
       <c r="K13" s="10"/>
-      <c r="L13" s="6"/>
+      <c r="L13" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M13" s="11"/>
       <c r="N13" s="6"/>
       <c r="O13" s="11"/>
@@ -2534,7 +2539,9 @@
       <c r="I14" s="21"/>
       <c r="J14" s="20"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="6"/>
+      <c r="L14" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M14" s="11"/>
       <c r="N14" s="6"/>
       <c r="O14" s="11"/>
@@ -2570,7 +2577,9 @@
       <c r="I15" s="21"/>
       <c r="J15" s="20"/>
       <c r="K15" s="10"/>
-      <c r="L15" s="6"/>
+      <c r="L15" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M15" s="11"/>
       <c r="N15" s="6"/>
       <c r="O15" s="11"/>
@@ -2606,7 +2615,9 @@
       <c r="I16" s="21"/>
       <c r="J16" s="20"/>
       <c r="K16" s="10"/>
-      <c r="L16" s="6"/>
+      <c r="L16" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M16" s="11"/>
       <c r="N16" s="6"/>
       <c r="O16" s="11"/>
@@ -2644,7 +2655,9 @@
       <c r="I17" s="21"/>
       <c r="J17" s="20"/>
       <c r="K17" s="10"/>
-      <c r="L17" s="6"/>
+      <c r="L17" s="46" t="s">
+        <v>1</v>
+      </c>
       <c r="M17" s="11"/>
       <c r="N17" s="6"/>
       <c r="O17" s="11"/>
@@ -4229,12 +4242,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -4242,6 +4249,12 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N8:N48 L8:L48 R8:R48 P8:P48 T8:T48" xr:uid="{00000000-0002-0000-0100-000000000000}">
